--- a/数据整理/stocks/A股/深证主板/000933-神火股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/000933-神火股份.xlsx
@@ -451,575 +451,775 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>009880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>安信成长动力一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3269</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002504</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华金鼎灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2885</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003304</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1731</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008891</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>安信价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1660</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001287</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>安信优势增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1493</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001959</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华商乐享互联灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.48</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1485</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>630009</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华商稳定增利债券A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>17.24</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1465</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003305</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0964</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002036</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>安信优势增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0723</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002943</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发多因子灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0647</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>630109</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华商稳定增利债券C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0513</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
           <t>006132</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>万家智造优势混合A</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>94.43</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>3.50</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008892</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>安信价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004205</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东方支柱产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007770</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>同泰开泰混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.01</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000433</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>安信鑫发优选混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>82.44</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002505</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华金鼎灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>82.27</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>006133</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>万家智造优势混合C</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>94.43</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>3.50</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>630009</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华商稳定增利债券A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>20.06</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>630109</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华商稳定增利债券C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>20.06</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>007770</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>同泰开泰混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007771</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>同泰开泰混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>89.01</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>2.48</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>007771</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>同泰开泰混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>89.01</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2.48</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>000433</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>安信鑫发优选混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>82.44</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>5.75</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>001287</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>安信优势增长灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>92.83</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>3.65</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>001959</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>华商乐享互联灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>89.48</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>3.33</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>002036</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>安信优势增长灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>92.83</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>3.65</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>002504</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>鹏华金鼎灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>82.27</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>4.73</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>002505</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>鹏华金鼎灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>82.27</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>4.73</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>002943</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>广发多因子灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>94.51</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>5.22</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>004205</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>东方支柱产业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>88.28</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>5.37</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>003304</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>前海开源沪港深核心资源灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>93.29</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>6.14</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>003305</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>前海开源沪港深核心资源灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>93.29</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>6.14</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>008891</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>安信价值成长混合A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>90.17</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>3.73</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>008892</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>安信价值成长混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>90.17</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>3.73</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>009880</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>安信成长动力一年持有期混合</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>85.53</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>3.23</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1029,7 +1229,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F66"/>
+  <dimension ref="A1:H66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1050,15 +1250,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001070</t>
+          <t>008099</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>建信信息产业股票</t>
+          <t>广发价值领先混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>89.71</t>
+          <t>45.87</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>6.05</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>2</v>
+          <t>72.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2843</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>960006</t>
+          <t>270001</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>上投摩根行业轮动混合H</t>
+          <t>广发聚富混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>92.16</t>
+          <t>16.75</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.71</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>7</v>
+          <t>59.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8375</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004157</t>
+          <t>005233</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>信诚至诚灵活配置混合A</t>
+          <t>广发睿毅领先混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>21.18</t>
+          <t>13.46</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.57</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>7</v>
+          <t>60.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6757</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004158</t>
+          <t>010452</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>信诚至诚灵活配置混合B</t>
+          <t>广发瑞福精选混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>21.18</t>
+          <t>16.94</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.57</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>7</v>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6708</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>003304</t>
+          <t>000390</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>前海开源沪港深核心资源灵活配置混合A</t>
+          <t>华商优势行业混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>95.94</t>
+          <t>23.06</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>7.60</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>4</v>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6664</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>003305</t>
+          <t>160106</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>前海开源沪港深核心资源灵活配置混合C</t>
+          <t>南方高增长混合(LOF)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>95.94</t>
+          <t>16.92</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>7.60</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>4</v>
+          <t>85.77</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6277</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>000308</t>
+          <t>003624</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>建信创新中国混合</t>
+          <t>创金合信资源主题精选股票A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>85.84</t>
+          <t>12.42</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5.87</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>2</v>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5664</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>166301</t>
+          <t>288001</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华商新趋势优选灵活配置混合</t>
+          <t>华夏经典配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>90.04</t>
+          <t>11.54</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.56</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>6</v>
+          <t>61.55</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5424</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>202027</t>
+          <t>002943</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>南方高端装备灵活配置混合A</t>
+          <t>广发多因子灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>89.79</t>
+          <t>8.52</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.76</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>10</v>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4115</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>005207</t>
+          <t>001763</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>南方高端装备灵活配置混合C</t>
+          <t>广发多策略灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>89.79</t>
+          <t>9.18</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2.76</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>10</v>
+          <t>57.89</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3874</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>005598</t>
+          <t>166301</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>广发中小盘精选混合</t>
+          <t>华商新趋势优选灵活配置混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>87.02</t>
+          <t>10.73</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>6.66</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>4</v>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3820</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>000242</t>
+          <t>501075</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>景顺长城策略精选</t>
+          <t>万家科创主题3年封闭运作灵活配置混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>88.16</t>
+          <t>15.65</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4.42</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>8</v>
+          <t>79.63</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3365</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>000390</t>
+          <t>003625</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>华商优势行业混合</t>
+          <t>创金合信资源主题精选股票C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>92.17</t>
+          <t>7.28</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2.89</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>8</v>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3320</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>270001</t>
+          <t>001070</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>广发聚富混合</t>
+          <t>建信信息产业股票</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>59.38</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>8</v>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2874</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>000534</t>
+          <t>003304</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>长盛高端装备制造灵活配置混合</t>
+          <t>前海开源沪港深核心资源灵活配置混合A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>88.43</t>
+          <t>3.76</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>5.18</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>2</v>
+          <t>95.94</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2858</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>288001</t>
+          <t>519997</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>华夏经典配置混合</t>
+          <t>长信银利精选混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>61.55</t>
+          <t>5.17</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>4.70</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>3</v>
+          <t>77.81</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2849</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -1518,25 +1888,35 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>310368</t>
+          <t>008962</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>申万菱信竞争优势混合</t>
+          <t>建信科技创新混合A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>88.29</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>7.18</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2463</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1546,26 +1926,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>000739</t>
+          <t>377530</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>平安新鑫先锋混合A</t>
+          <t>上投摩根行业轮动混合A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>87.72</t>
+          <t>8.78</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4.18</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>3</v>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2379</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="20">
@@ -1574,26 +1964,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>001515</t>
+          <t>202027</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>平安新鑫先锋混合C</t>
+          <t>南方高端装备灵活配置混合A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>87.72</t>
+          <t>7.35</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>4.18</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>3</v>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2029</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -1612,15 +2012,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>92.79</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>2.22</t>
         </is>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1903</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1630,26 +2040,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>377530</t>
+          <t>630008</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>上投摩根行业轮动混合A</t>
+          <t>华商策略精选混合</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>92.16</t>
+          <t>6.70</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2.71</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>7</v>
+          <t>76.31</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1869</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -1658,26 +2078,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>010282</t>
+          <t>001959</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>中信建投智享生活混合A</t>
+          <t>华商乐享互联灵活配置混合</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>94.51</t>
+          <t>4.19</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>5.10</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>6</v>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1772</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -1686,26 +2116,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>010283</t>
+          <t>001809</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>中信建投智享生活混合C</t>
+          <t>中信建投智信物联网灵活配置混合A</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>94.51</t>
+          <t>4.03</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>5.10</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>6</v>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1709</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="25">
@@ -1714,26 +2154,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>010452</t>
+          <t>010282</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>广发瑞福精选混合A</t>
+          <t>中信建投智享生活混合A</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>88.49</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>3.96</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>10</v>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1520</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="26">
@@ -1742,26 +2192,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>010453</t>
+          <t>005598</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>广发瑞福精选混合C</t>
+          <t>广发中小盘精选混合</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>88.49</t>
+          <t>2.28</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>3.96</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>10</v>
+          <t>87.02</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1518</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="27">
@@ -1770,26 +2230,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>501075</t>
+          <t>000534</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>万家科创主题3年封闭运作灵活配置混合A</t>
+          <t>长盛高端装备制造灵活配置混合</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>79.63</t>
+          <t>2.47</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2.15</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>9</v>
+          <t>88.43</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1279</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="28">
@@ -1798,26 +2268,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>007501</t>
+          <t>003305</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>万家科创主题3年封闭运作灵活配置混合C</t>
+          <t>前海开源沪港深核心资源灵活配置混合C</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>79.63</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2.15</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>9</v>
+          <t>95.94</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1193</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="29">
@@ -1826,26 +2306,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>007012</t>
+          <t>000242</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>湘财长顺混合A</t>
+          <t>景顺长城策略精选</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>93.01</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>3.51</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>5</v>
+          <t>88.16</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1087</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="30">
@@ -1854,25 +2344,35 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>007013</t>
+          <t>007012</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>湘财长顺混合C</t>
+          <t>湘财长顺混合A</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
           <t>93.01</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>3.51</t>
         </is>
       </c>
-      <c r="F30" t="n">
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0948</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1882,26 +2382,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>007388</t>
+          <t>000308</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>上投摩根研究驱动股票A</t>
+          <t>建信创新中国混合</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>89.63</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>3.01</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>6</v>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0886</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="32">
@@ -1910,26 +2420,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>007389</t>
+          <t>005273</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>上投摩根研究驱动股票C</t>
+          <t>华商可转债债券A</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>89.63</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>3.01</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>6</v>
+          <t>42.82</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0772</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1938,26 +2458,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>001402</t>
+          <t>008128</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>信诚新选回报灵活配置混合A</t>
+          <t>湘财长源股票A</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>21.23</t>
+          <t>1.69</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0.58</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>7</v>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0524</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="34">
@@ -1966,26 +2496,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>002030</t>
+          <t>004636</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>信诚新选回报灵活配置混合B</t>
+          <t>中信建投智信物联网灵活配置混合C</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>21.23</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>0.58</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>7</v>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0513</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="35">
@@ -1994,26 +2534,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>001415</t>
+          <t>001402</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>信诚新锐回报灵活配置混合A</t>
+          <t>信诚新选回报灵活配置混合A</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>21.13</t>
+          <t>8.77</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>9</v>
+          <t>21.23</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0509</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="36">
@@ -2022,26 +2572,36 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>002046</t>
+          <t>004157</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>信诚新锐回报灵活配置混合B</t>
+          <t>信诚至诚灵活配置混合A</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>21.13</t>
+          <t>8.87</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>9</v>
+          <t>21.18</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0506</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="37">
@@ -2050,26 +2610,36 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>001763</t>
+          <t>005284</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>广发多策略灵活配置混合</t>
+          <t>华商可转债债券C</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>57.89</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>4.22</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>8</v>
+          <t>42.82</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0492</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -2078,26 +2648,36 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>001809</t>
+          <t>002281</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>中信建投智信物联网灵活配置混合A</t>
+          <t>建信裕利灵活配置混合</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>94.98</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>4.24</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>9</v>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="39">
@@ -2106,25 +2686,35 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>004636</t>
+          <t>001415</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>中信建投智信物联网灵活配置混合C</t>
+          <t>信诚新锐回报灵活配置混合A</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>94.98</t>
+          <t>8.89</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>4.24</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
+          <t>21.13</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
         <v>9</v>
       </c>
     </row>
@@ -2134,26 +2724,36 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>160106</t>
+          <t>000739</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>南方高增长混合(LOF)</t>
+          <t>平安新鑫先锋混合A</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>85.77</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>3.71</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>9</v>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0443</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="41">
@@ -2162,26 +2762,36 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>001959</t>
+          <t>002601</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>华商乐享互联灵活配置混合</t>
+          <t>中银证券价值精选灵活配置混合</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>93.29</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>5</v>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0437</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="42">
@@ -2190,26 +2800,36 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>519997</t>
+          <t>008180</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>长信银利精选混合</t>
+          <t>同泰慧利混合A</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>77.81</t>
+          <t>1.69</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>5.51</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>6</v>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="43">
@@ -2218,26 +2838,36 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>630008</t>
+          <t>007388</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>华商策略精选混合</t>
+          <t>上投摩根研究驱动股票A</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>76.31</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2.79</t>
-        </is>
-      </c>
-      <c r="F43" t="n">
-        <v>8</v>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="44">
@@ -2246,26 +2876,36 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>002281</t>
+          <t>010453</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>建信裕利灵活配置混合</t>
+          <t>广发瑞福精选混合C</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>89.07</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>5.90</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
-        <v>2</v>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="45">
@@ -2274,26 +2914,36 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>005233</t>
+          <t>002030</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>广发睿毅领先混合</t>
+          <t>信诚新选回报灵活配置混合B</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>60.72</t>
+          <t>5.40</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>5.02</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
-        <v>4</v>
+          <t>21.23</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="46">
@@ -2302,26 +2952,36 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>005273</t>
+          <t>007013</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>华商可转债债券A</t>
+          <t>湘财长顺混合C</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>42.82</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2.72</t>
-        </is>
-      </c>
-      <c r="F46" t="n">
-        <v>1</v>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="47">
@@ -2330,26 +2990,36 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>005284</t>
+          <t>008050</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>华商可转债债券C</t>
+          <t>同泰慧择混合A</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>42.82</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2.72</t>
-        </is>
-      </c>
-      <c r="F47" t="n">
-        <v>1</v>
+          <t>95.06</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="48">
@@ -2358,26 +3028,36 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>002601</t>
+          <t>008129</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>中银证券价值精选灵活配置混合</t>
+          <t>湘财长源股票C</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>93.23</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>5.20</t>
-        </is>
-      </c>
-      <c r="F48" t="n">
-        <v>6</v>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="49">
@@ -2386,25 +3066,35 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>008962</t>
+          <t>310368</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>建信科技创新混合A</t>
+          <t>申万菱信竞争优势混合</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>92.33</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>6.30</t>
-        </is>
-      </c>
-      <c r="F49" t="n">
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2414,26 +3104,36 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>008963</t>
+          <t>004158</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>建信科技创新混合C</t>
+          <t>信诚至诚灵活配置混合B</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>92.33</t>
+          <t>3.73</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>6.30</t>
-        </is>
-      </c>
-      <c r="F50" t="n">
-        <v>2</v>
+          <t>21.18</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="51">
@@ -2442,26 +3142,36 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>002943</t>
+          <t>003234</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>广发多因子灵活配置混合</t>
+          <t>信诚至利灵活配置混合A</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>94.58</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>4.83</t>
-        </is>
-      </c>
-      <c r="F51" t="n">
-        <v>8</v>
+          <t>22.16</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="52">
@@ -2470,26 +3180,36 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>007770</t>
+          <t>005207</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>同泰开泰混合A</t>
+          <t>南方高端装备灵活配置混合C</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>89.67</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="F52" t="n">
-        <v>7</v>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="53">
@@ -2498,25 +3218,35 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>007771</t>
+          <t>007770</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>同泰开泰混合C</t>
+          <t>同泰开泰混合A</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
           <t>89.67</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>3.37</t>
         </is>
       </c>
-      <c r="F53" t="n">
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
         <v>7</v>
       </c>
     </row>
@@ -2526,26 +3256,36 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>003234</t>
+          <t>960006</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>信诚至利灵活配置混合A</t>
+          <t>上投摩根行业轮动混合H</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>22.16</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="F54" t="n">
-        <v>9</v>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="55">
@@ -2554,26 +3294,36 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>003235</t>
+          <t>008093</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>信诚至利灵活配置混合C</t>
+          <t>同泰慧选混合A</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>22.16</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="F55" t="n">
-        <v>9</v>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="56">
@@ -2582,26 +3332,36 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>008050</t>
+          <t>010283</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>同泰慧择混合A</t>
+          <t>中信建投智享生活混合C</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>95.06</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2.56</t>
-        </is>
-      </c>
-      <c r="F56" t="n">
-        <v>9</v>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="57">
@@ -2610,26 +3370,36 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>008051</t>
+          <t>001515</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>同泰慧择混合C</t>
+          <t>平安新鑫先锋混合C</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>95.06</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2.56</t>
-        </is>
-      </c>
-      <c r="F57" t="n">
-        <v>9</v>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="58">
@@ -2638,26 +3408,36 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>003624</t>
+          <t>002046</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>创金合信资源主题精选股票A</t>
+          <t>信诚新锐回报灵活配置混合B</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>92.82</t>
+          <t>2.97</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>4.56</t>
-        </is>
-      </c>
-      <c r="F58" t="n">
-        <v>10</v>
+          <t>21.13</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="59">
@@ -2666,26 +3446,36 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>003625</t>
+          <t>008963</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>创金合信资源主题精选股票C</t>
+          <t>建信科技创新混合C</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>92.82</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>4.56</t>
-        </is>
-      </c>
-      <c r="F59" t="n">
-        <v>10</v>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="60">
@@ -2694,26 +3484,36 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>008093</t>
+          <t>003235</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>同泰慧选混合A</t>
+          <t>信诚至利灵活配置混合C</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>94.45</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2.87</t>
-        </is>
-      </c>
-      <c r="F60" t="n">
-        <v>8</v>
+          <t>22.16</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="61">
@@ -2722,26 +3522,36 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>008094</t>
+          <t>007389</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>同泰慧选混合C</t>
+          <t>上投摩根研究驱动股票C</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>94.45</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2.87</t>
-        </is>
-      </c>
-      <c r="F61" t="n">
-        <v>8</v>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="62">
@@ -2750,26 +3560,36 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>008099</t>
+          <t>008094</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>广发价值领先混合</t>
+          <t>同泰慧选混合C</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>72.96</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>4.98</t>
-        </is>
-      </c>
-      <c r="F62" t="n">
-        <v>6</v>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="63">
@@ -2778,26 +3598,36 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>008128</t>
+          <t>008051</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>湘财长源股票A</t>
+          <t>同泰慧择混合C</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>94.68</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>3.10</t>
-        </is>
-      </c>
-      <c r="F63" t="n">
-        <v>8</v>
+          <t>95.06</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="64">
@@ -2806,26 +3636,36 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>008129</t>
+          <t>008181</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>湘财长源股票C</t>
+          <t>同泰慧利混合C</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>94.68</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>3.10</t>
-        </is>
-      </c>
-      <c r="F64" t="n">
-        <v>8</v>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="65">
@@ -2834,25 +3674,35 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>008180</t>
+          <t>007771</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>同泰慧利混合A</t>
+          <t>同泰开泰混合C</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>94.33</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2.52</t>
-        </is>
-      </c>
-      <c r="F65" t="n">
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
         <v>7</v>
       </c>
     </row>
@@ -2862,26 +3712,30 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>008181</t>
+          <t>007501</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>同泰慧利混合C</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>94.33</t>
-        </is>
-      </c>
+          <t>万家科创主题3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2.52</t>
-        </is>
-      </c>
-      <c r="F66" t="n">
-        <v>7</v>
+          <t>79.63</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/000933-神火股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/000933-神火股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3720,7 +3721,6 @@
           <t>万家科创主题3年封闭运作灵活配置混合C</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
         <is>
           <t>79.63</t>
@@ -3736,6 +3736,1658 @@
       </c>
       <c r="H66" t="n">
         <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>720001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>财通价值动量混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0231</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001480</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>财通成长优选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7153</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000390</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华商优势行业混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.76</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.46</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7050</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501085</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>财通科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.41</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5721</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010452</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发瑞福精选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.55</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5582</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003624</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>创金合信资源主题精选股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.35</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5232</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>166301</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华商新趋势优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.83</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.91</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4657</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>288001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏经典配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.89</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>66.14</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4403</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009970</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>财通内需增长12个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>14.20</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>60.21</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3621</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008983</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>财通科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2919</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003625</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>创金合信资源主题精选股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2900</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>240004</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华宝动力组合混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>69.00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2832</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009062</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>财通智慧成长混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2045</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>630008</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华商策略精选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>77.50</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1970</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000242</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>景顺长城策略精选</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1687</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001959</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华商乐享互联灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1636</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>501046</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>财通多策略福鑫定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1367</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005273</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华商可转债债券A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>36.94</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1260</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>376510</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>上投摩根大盘蓝筹股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1067</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005598</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>83.06</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1066</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008180</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>同泰慧利混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0681</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004265</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>金鹰民丰回报定期开放混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>22.72</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0680</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002601</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中银证券价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0589</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005284</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华商可转债债券C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>36.94</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0533</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007388</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>上投摩根研究驱动股票A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>000739</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>平安新鑫先锋混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0442</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>008050</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>同泰慧择混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>080001</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>长盛成长价值混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>74.92</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0406</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>501032</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>财通福盛多策略混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>008984</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>财通科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009063</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>财通智慧成长混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010453</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>广发瑞福精选混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001515</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>平安新鑫先锋混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002210</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001967</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华宝转型升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>004284</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华宝新优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>53.81</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>006522</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>财通新兴蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>007389</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>上投摩根研究驱动股票C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>008181</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>同泰慧利混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>008051</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>同泰慧择混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>006523</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>财通新兴蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>003865</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/000933-神火股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/000933-神火股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5393,4 +5394,820 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>240022</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝资源优选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>24.23</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9789</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000390</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华商优势行业混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.31</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8055</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>630002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华商盛世成长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>24.83</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7970</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>166301</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华商新趋势优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>26.65</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.04</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7569</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010761</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华商甄选回报混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17.28</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7344</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009782</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>69.43</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6028</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011046</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国优质企业混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.17</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>80.86</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5522</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003218</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>前海开源祥和债券A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>16.14</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>20.30</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3083</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010029</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国稳进回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.06</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>30.28</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2665</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>100016</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国天源沪港深平衡混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>65.96</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2641</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009783</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>69.43</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2421</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>630008</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华商策略精选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>76.05</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2319</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001959</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华商乐享互联灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2085</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011068</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华宝资源优选混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>85.23</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2068</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>240004</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华宝动力组合混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>79.19</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1893</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005732</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国臻选成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>84.52</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1472</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003219</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>前海开源祥和债券C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>20.30</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0512</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>080001</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长盛成长价值混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>67.97</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0477</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010030</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国稳进回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>30.28</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011047</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国优质企业混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>80.86</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000933-神火股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/000933-神火股份.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6210,4 +6211,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.46</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>42</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>65</v>
+      </c>
+      <c r="D4" t="n">
+        <v>12.82</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>19</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000933-神火股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/000933-神火股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6219,7 +6220,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6230,17 +6231,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6250,14 +6271,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>20</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7.46</v>
+          <t>009782</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.83</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>77.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0771</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -6266,14 +6309,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>42</v>
-      </c>
-      <c r="D3" t="n">
-        <v>8.1</v>
+          <t>166301</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华商新趋势优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.55</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8143</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -6282,14 +6347,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>65</v>
-      </c>
-      <c r="D4" t="n">
-        <v>12.82</v>
+          <t>240022</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝资源优选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.99</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8004</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -6298,13 +6385,1094 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>050001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时价值增长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>25.67</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7444</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000390</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华商优势行业混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17.92</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.53</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6595</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>630002</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华商盛世成长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>23.91</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.53</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6504</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010761</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华商甄选回报混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>17.64</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.47</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6015</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160526</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时优势企业3年封闭运作灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>14.81</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5435</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011046</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国优质企业混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10.17</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>83.82</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4882</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010029</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国稳进回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11.06</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>31.41</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3606</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>050201</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时价值增长贰号混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10.58</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.80</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3068</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011068</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华宝资源优选混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.21</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2322</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013678</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国信享回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9.51</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>24.27</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1892</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>161039</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国中证1000指数增强LOF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>21.72</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1716</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001959</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华商乐享互联灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>85.65</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1322</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009783</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>77.97</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1293</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005732</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国臻选成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1158</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>460009</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0931</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>013679</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国信享回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>24.27</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0557</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010030</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国稳进回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>31.41</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0482</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>080001</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长盛成长价值混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>62.92</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008116</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>银华沪深股通精选混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>84.98</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011047</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>富国优质企业混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>83.82</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010762</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>博时恒康一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>20.02</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006230</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>鹏华研究驱动混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>87.07</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010763</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>博时恒康一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>20.02</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>003366</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>浙商汇金中证转型成长指数</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010246</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007234</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>博时优势企业3年封闭运作灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>29</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.35</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>20</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.46</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>42</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>65</v>
+      </c>
+      <c r="D5" t="n">
+        <v>12.82</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>19</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.81</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000933-神火股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/000933-神火股份.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7371,7 +7372,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7382,17 +7383,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -7402,14 +7423,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>29</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8.35</v>
+          <t>002910</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达供给改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>49.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.7898</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -7418,14 +7461,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>20</v>
-      </c>
-      <c r="D3" t="n">
-        <v>7.46</v>
+          <t>001832</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达瑞恒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>27.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6773</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -7434,14 +7499,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>42</v>
-      </c>
-      <c r="D4" t="n">
-        <v>8.1</v>
+          <t>240022</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝资源优选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.75</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4034</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -7450,14 +7537,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>65</v>
-      </c>
-      <c r="D5" t="n">
-        <v>12.82</v>
+          <t>166301</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华商新趋势优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>26.96</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.39</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2563</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -7466,13 +7575,3920 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>001182</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达安心回馈混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>34.92</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1656</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000390</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华商优势行业混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>19.61</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.06</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0178</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>630002</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华商盛世成长混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>22.62</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0043</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010761</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华商甄选回报混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>20.63</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9284</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>160526</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时优势企业3年封闭运作灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>14.81</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>82.86</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8397</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011236</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>上投摩根行业睿选股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>32.37</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.31</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8125</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011046</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国优质企业混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>71.23</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6978</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>590003</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中邮核心优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12.43</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>78.81</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6874</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004374</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年丰混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10.46</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6255</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013141</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中信保诚弘远混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>21.40</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>76.04</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6206</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>165516</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>信诚周期轮动混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>19.33</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>76.68</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5702</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011068</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华宝资源优选混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.32</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4976</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012366</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>上投摩根安荣回报混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>41.47</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>21.90</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4520</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000061</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏盛世混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>14.90</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.80</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3814</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>671010</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>西部利得策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3755</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>370024</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>上投摩根核心优选混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>13.74</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>85.27</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3614</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009782</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>70.06</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3591</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>377530</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>上投摩根行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>10.38</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>86.32</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3031</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010981</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>兴全汇虹一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>39.24</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>21.39</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2904</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006642</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年利定期开放混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2855</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004738</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>上投摩根安隆回报混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>23.04</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>21.18</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2788</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>013678</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富国信享回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>27.59</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2771</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010029</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>富国稳进回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>9.16</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>30.21</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2675</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>012367</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>上投摩根安荣回报混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>23.94</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>21.90</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2609</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005273</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华商可转债债券A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>10.06</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>39.60</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2435</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>240004</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华宝动力组合混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>10.49</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>79.23</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2381</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>004375</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年丰混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2177</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001959</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华商乐享互联灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>88.84</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2106</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005904</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华泰保兴成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>82.40</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1999</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>004823</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>上投摩根安裕回报混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>11.29</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>30.12</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1671</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>012442</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>永赢稳健增长一年持有期混合E</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>22.52</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>22.68</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1644</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009932</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>永赢稳健增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>22.52</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>22.68</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1644</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>630011</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华商主题精选混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1627</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010296</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>万家互联互通中国优势量化策略混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1587</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009783</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>70.06</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1423</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001449</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华商双驱优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1405</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005732</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>富国臻选成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>64.81</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1389</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011237</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>上投摩根行业睿选股票C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>86.31</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1365</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>007586</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华泰保兴多策略三个月定期开放股票</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1284</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>004824</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>上投摩根安裕回报混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>30.12</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1104</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>519183</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>万家双引擎灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1084</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>003839</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>易方达瑞通灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>32.04</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1026</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>013323</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>国寿安保盛泽三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>77.99</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0984</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>001088</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华宝国策导向混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>85.75</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0983</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>005284</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华商可转债债券C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>39.60</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0920</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>004739</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>上投摩根安隆回报混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>21.18</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0886</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>013626</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华夏周期驱动混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0849</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010982</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>兴全汇虹一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>11.36</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>21.39</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0841</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>013679</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>富国信享回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>27.59</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0806</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>210001</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>金鹰成份股优选混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>78.31</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0805</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>121010</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>67.79</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0780</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>011060</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>西部利得策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0730</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>540002</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>汇丰晋信龙腾混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>66.68</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0721</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>008997</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>同泰竞争优势混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0716</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>161132</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>易方达科顺定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0714</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>080001</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>长盛成长价值混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>60.74</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0602</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>960006</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>上投摩根行业轮动混合H</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>86.32</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0584</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>161222</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞利灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>63.82</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0539</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>000664</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>国联安通盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>24.12</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0527</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>008998</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>同泰竞争优势混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0511</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>013627</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>华夏周期驱动混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0511</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>011047</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>富国优质企业混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>71.23</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>012496</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>同泰行业优选股票A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0383</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>010030</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>富国稳进回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>30.21</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>004131</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>国联安鑫发混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>21.10</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>010403</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>华商景气优选混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>84.95</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>008488</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>华商恒益稳健混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>58.93</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>001244</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>001135</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>益民品质升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>002485</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>国联安通盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>24.12</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>005381</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>007770</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>同泰开泰混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>014608</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>中欧周期景气混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>005855</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>中科沃土沃瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>47.85</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>007423</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>69.21</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>000788</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>前海开源中国成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>400023</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>东方多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>005905</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>华泰保兴成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>82.40</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>008093</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>同泰慧选混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>007424</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>69.21</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>002137</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>诺安利鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>76.34</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>003840</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>易方达瑞通灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>32.04</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>010297</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>万家互联互通中国优势量化策略混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>005382</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>002068</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>东方多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>005161</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>华商上游产业股票</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>005856</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>中科沃土沃瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>47.85</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>012497</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>同泰行业优选股票C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>006104</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>007771</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>同泰开泰混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>008094</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>同泰慧选混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>013324</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>国寿安保盛泽三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>77.99</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>013437</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>财通资管中证有色金属指数A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>004132</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>国联安鑫发混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>21.10</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>013438</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>财通资管中证有色金属指数C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>004794</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>富荣福鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>004795</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>富荣福鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>014609</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>中欧周期景气混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>014641</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>上投摩根行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>86.32</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G104" t="n">
+        <v>0</v>
+      </c>
+      <c r="H104" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>007234</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>博时优势企业3年封闭运作灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>82.86</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G105" t="n">
+        <v>0</v>
+      </c>
+      <c r="H105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>104</v>
+      </c>
+      <c r="D2" t="n">
+        <v>25.51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>29</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.35</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>20</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.46</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>42</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>65</v>
+      </c>
+      <c r="D6" t="n">
+        <v>12.82</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>19</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.81</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000933-神火股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/000933-神火股份.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -11371,7 +11372,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11382,17 +11383,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -11402,14 +11423,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>104</v>
-      </c>
-      <c r="D2" t="n">
-        <v>25.51</v>
+          <t>002910</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达供给改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>63.77</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.1909</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -11418,14 +11461,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>29</v>
-      </c>
-      <c r="D3" t="n">
-        <v>8.35</v>
+          <t>001832</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达瑞恒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>35.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.7663</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -11434,14 +11499,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>20</v>
-      </c>
-      <c r="D4" t="n">
-        <v>7.46</v>
+          <t>001373</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达新丝路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>43.42</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4329</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -11450,14 +11537,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>42</v>
-      </c>
-      <c r="D5" t="n">
-        <v>8.1</v>
+          <t>166301</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华商新趋势优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>38.21</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.35</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3603</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -11466,14 +11575,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>65</v>
-      </c>
-      <c r="D6" t="n">
-        <v>12.82</v>
+          <t>000390</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华商优势行业混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>19.34</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9477</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -11482,13 +11613,1853 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>630002</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华商盛世成长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>23.06</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9362</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010761</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华商甄选回报混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>22.32</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.22</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8638</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>110025</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达资源行业混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>18.63</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8309</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>240022</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华宝资源优选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>25.95</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.38</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7837</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>590003</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中邮核心优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>18.42</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>79.21</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7036</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011046</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国优质企业混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>80.79</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4551</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002666</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10.07</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.43</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4109</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>671010</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>西部利得策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3202</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011068</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华宝资源优选混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>10.16</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.38</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3068</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>160526</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时优势企业3年封闭运作灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>85.85</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2479</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004738</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>上投摩根安隆回报混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>22.80</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>23.57</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1961</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001959</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华商乐享互联灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1869</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>013678</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国信享回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>9.56</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>27.97</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1807</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>630011</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华商主题精选混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1598</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>161123</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>易方达并购重组指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1568</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012367</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>上投摩根安荣回报混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>19.94</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>24.13</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1555</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010029</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富国稳进回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>35.08</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1519</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009782</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>74.87</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1414</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012366</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>上投摩根安荣回报混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>15.89</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>24.13</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1239</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002667</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>85.43</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1130</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001382</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>易方达国企改革混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>88.18</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1078</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009783</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>74.87</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0930</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005732</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>富国臻选成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>84.30</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0905</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002222</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>嘉实新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>27.08</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0896</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001688</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>嘉实新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>26.28</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0886</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>004824</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>上投摩根安裕回报混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>34.44</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0829</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>161132</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>易方达科顺定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0670</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>004739</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>上投摩根安隆回报混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>23.57</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0659</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001755</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>嘉实新思路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>26.93</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0644</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>210001</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>金鹰成份股优选混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>76.71</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0642</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011060</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>西部利得策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0627</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>013679</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>富国信享回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>27.97</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0525</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>004823</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>上投摩根安裕回报混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>34.44</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0466</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>260117</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>景顺长城支柱产业混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>60.86</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011047</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>富国优质企业混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>80.79</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005855</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中科沃土沃瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>79.91</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010030</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>富国稳进回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>35.08</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>007423</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>76.98</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>005856</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中科沃土沃瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>79.91</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>007424</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>76.98</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>006225</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>人保量化基本面混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>013142</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华商乐享互联灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>006226</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>人保量化基本面混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>002178</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>嘉实新起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>26.28</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>007234</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>博时优势企业3年封闭运作灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>85.85</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>50</v>
+      </c>
+      <c r="D2" t="n">
+        <v>20.28</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>104</v>
+      </c>
+      <c r="D3" t="n">
+        <v>25.51</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>29</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.35</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>20</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.46</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>42</v>
+      </c>
+      <c r="D6" t="n">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>65</v>
+      </c>
+      <c r="D7" t="n">
+        <v>12.82</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>19</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>1.81</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000933-神火股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/000933-神火股份.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="D2" t="n">
-        <v>20.28</v>
+        <v>49.76</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>104</v>
+        <v>50</v>
       </c>
       <c r="D3" t="n">
-        <v>25.51</v>
+        <v>20.28</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="D4" t="n">
-        <v>8.35</v>
+        <v>25.51</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D5" t="n">
-        <v>7.46</v>
+        <v>8.35</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="D6" t="n">
-        <v>8.1</v>
+        <v>7.46</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="D7" t="n">
-        <v>12.82</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>65</v>
+      </c>
+      <c r="D8" t="n">
+        <v>12.82</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>19</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>1.81</v>
       </c>
     </row>
@@ -600,6 +617,4162 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H109"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002910</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达供给改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.8800</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006551</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中庚价值领航混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>118.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.0559</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011174</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中庚价值品质一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>66.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.9997</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001832</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达瑞恒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>41.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.4039</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007130</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中庚小盘价值股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>75.87</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.3155</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009548</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富中盘价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>99.23</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.2051</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001373</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达新丝路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>41.27</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.67</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.3070</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>166301</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华商新趋势优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>57.69</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>75.38</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.5980</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007497</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中庚价值灵动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>36.46</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.5824</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>110025</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达资源行业混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>16.09</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.4610</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>590003</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中邮核心优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>18.95</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>79.43</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.4080</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000390</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华商优势行业混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>26.43</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>83.59</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.9726</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>630002</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华商盛世成长混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>21.74</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.9609</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010761</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华商甄选回报混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>24.94</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>85.36</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.8056</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009549</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富中盘价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>20.21</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6528</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000925</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇添富外延增长主题股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>20.52</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>80.45</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6094</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013627</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏周期驱动混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>10.72</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>83.47</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5960</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011046</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国优质企业混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>67.42</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5503</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>161222</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞利灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>23.90</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>68.57</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5186</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014917</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇丰晋信时代先锋混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4680</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>512100</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>南方中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>103.03</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4636</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>240022</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华宝资源优选混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>12.44</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3695</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004046</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华夏新锦顺灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>26.36</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>61.07</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3453</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>560010</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>广发中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>64.26</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>98.49</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2892</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010338</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国投瑞银远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>10.51</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.69</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2806</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>159633</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>易方达中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>61.05</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>98.47</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2747</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>160526</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>博时优势企业灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>85.98</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2603</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002601</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中银证券价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2518</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>159629</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>富国中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>54.24</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>98.95</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2495</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011068</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华宝资源优选混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2349</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>121010</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>70.88</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2070</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>161123</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>易方达并购重组指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2062</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>159845</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华夏中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>40.75</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>98.48</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1834</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>015652</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞利灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>68.57</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1736</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>002095</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>博时新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1715</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>013626</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华夏周期驱动混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>83.47</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1535</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>003624</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>创金合信资源主题精选股票A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1204</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>002096</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>博时新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1086</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009782</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>44.46</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1076</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>003401</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>工银可转债债券</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>42.03</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0985</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>161132</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>易方达科顺定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>89.55</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0860</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>016049</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华商甄选回报混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>85.36</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0837</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>003625</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>创金合信资源主题精选股票C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0835</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011631</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>西藏东财中证有色金属指数增强C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0832</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>005732</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>富国臻选成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>52.36</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0790</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>008308</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华夏见龙精选混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0747</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>009783</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>44.46</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0707</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>014126</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华夏中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>89.62</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0694</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>014918</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>汇丰晋信时代先锋混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0682</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011630</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>西藏东财中证有色金属指数增强A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0670</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>005945</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>工银可转债优选债券A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>42.07</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0599</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>014922</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华夏ESG可持续投资一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>87.43</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0595</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>012993</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>汇添富品牌力一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>64.64</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0568</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>560110</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>汇添富中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>13.42</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>590006</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>中邮中小盘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>75.77</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0503</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>011269</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>中银证券优势制造股票A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0469</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>010339</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>国投瑞银远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>88.69</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0467</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>001157</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>国联安睿祺灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>23.67</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0434</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>260117</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>景顺长城支柱产业混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>008488</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华商恒益稳健混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>52.53</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>011270</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>中银证券优势制造股票C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>015031</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>博时远见回报混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>76.26</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>011047</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>富国优质企业混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>67.42</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>002485</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>国联安通盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>38.64</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>166109</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>信澳量化先锋混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>163110</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>申万菱信量化小盘股票（LOF）A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>005855</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>中科沃土沃瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>83.31</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>011340</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>博时战略新材料主题混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>79.55</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>015572</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>70.88</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>015030</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>博时远见回报混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>76.26</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>014212</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>博时研究优享混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>79.50</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>004047</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>华夏新锦顺灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>61.07</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>001243</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>博时中证淘金大数据100指数I</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>006110</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>富荣价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>35.02</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>011341</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>博时战略新材料主题混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>79.55</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>005946</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>工银可转债优选债券C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>42.07</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>005856</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>中科沃土沃瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>83.31</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>001242</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>博时中证淘金大数据100指数A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>005186</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>长安鑫兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>673073</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>西部利得新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>26.00</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>004557</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>北信瑞丰鼎丰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>64.59</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>014913</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>博时研究回报混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>78.32</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>000664</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>国联安通盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>38.64</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>012994</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>汇添富品牌力一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>64.64</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>014125</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>华夏中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>89.62</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>516300</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>005187</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>长安鑫兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>006486</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>广发中证1000指数A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>66.92</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>166110</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>信澳量化先锋混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>014923</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>华夏ESG可持续投资一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>87.43</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>008300</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>人保量化锐进混合A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>006487</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>广发中证1000指数C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>66.92</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>673071</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>西部利得新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>26.00</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>014914</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>博时研究回报混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>78.32</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>167703</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>德邦量化优选股票（LOF）C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>004913</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>43.92</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>014213</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>博时研究优享混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>79.50</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>007808</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>北信瑞丰量化优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>78.75</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>167702</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>德邦量化优选股票（LOF）A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>004914</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>43.92</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>008301</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>人保量化锐进混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>162413</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>华宝中证1000指数A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>90.90</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>001849</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>前海开源强势共识100强等权重股票</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>91.68</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>011424</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>汇添富外延增长主题股票C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>80.45</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>016033</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>华宝中证1000指数C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>90.90</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>006109</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>富荣价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>35.02</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>007234</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>博时优势企业灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>85.98</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G108" t="n">
+        <v>0</v>
+      </c>
+      <c r="H108" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>013918</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>申万菱信量化小盘股票（LOF）C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G109" t="n">
+        <v>0</v>
+      </c>
+      <c r="H109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2553,7 +6726,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6552,7 +10725,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7703,7 +11876,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8519,7 +12692,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10171,7 +14344,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12690,7 +16863,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/000933-神火股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/000933-神火股份.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="D2" t="n">
-        <v>49.76</v>
+        <v>52.44</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="D3" t="n">
-        <v>20.28</v>
+        <v>49.76</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>104</v>
+        <v>50</v>
       </c>
       <c r="D4" t="n">
-        <v>25.51</v>
+        <v>20.28</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="D5" t="n">
-        <v>8.35</v>
+        <v>25.51</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D6" t="n">
-        <v>7.46</v>
+        <v>8.35</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="D7" t="n">
-        <v>8.1</v>
+        <v>7.46</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="D8" t="n">
-        <v>12.82</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,808 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>65</v>
+      </c>
+      <c r="D9" t="n">
+        <v>12.82</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>19</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>1.81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>安信成长动力一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3269</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002504</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华金鼎灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2885</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003304</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1731</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008891</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>安信价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1660</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001287</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>安信优势增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1493</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001959</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华商乐享互联灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.48</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1485</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>630009</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华商稳定增利债券A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>17.24</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1465</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003305</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0964</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002036</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>安信优势增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0723</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002943</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发多因子灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0647</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>630109</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华商稳定增利债券C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0513</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006132</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>万家智造优势混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008892</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>安信价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004205</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东方支柱产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007770</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>同泰开泰混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.01</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000433</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>安信鑫发优选混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>82.44</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002505</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华金鼎灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>82.27</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006133</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>万家智造优势混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007771</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>同泰开泰混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.01</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1412,2798 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H73"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002910</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达供给改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>79.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.6086</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006551</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中庚价值领航混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>116.63</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.6013</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010340</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达高质量严选三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>116.14</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>6.1786</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007130</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中庚小盘价值股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>76.15</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.8355</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011174</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中庚价值品质一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>67.05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.7548</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001832</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达瑞恒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>37.41</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.21</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.9554</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>166019</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>71.44</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.5933</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>166301</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华商新趋势优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>98.72</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>74.44</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.3890</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007497</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中庚价值灵动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>34.74</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.0114</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001373</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达新丝路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>38.16</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.5378</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>590003</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中邮核心优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>19.01</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>79.84</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.4961</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>110025</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达资源行业混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>16.04</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.05</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.4516</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000390</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华商优势行业混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>35.74</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.3367</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004235</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>29.51</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.0712</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>630002</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华商盛世成长混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>23.51</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.8558</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010761</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华商甄选回报混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>40.49</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>70.56</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.7005</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>161222</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞利灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>24.37</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>75.57</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6190</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>512100</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>南方中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>106.09</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>98.15</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4031</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>016049</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华商甄选回报混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>20.87</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>70.56</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3611</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001887</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合E</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3321</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>240022</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华宝资源优选混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>11.79</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>86.16</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3207</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001382</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>易方达国企改革混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2925</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011046</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>富国优质企业混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>79.84</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2900</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010338</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国投瑞银远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>10.16</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>86.73</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2835</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>560010</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>广发中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>67.21</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>98.32</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2554</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>159845</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华夏中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>62.11</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>98.70</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2360</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>159629</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>富国中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>59.33</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>99.34</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2255</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>015652</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞利灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>75.57</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2235</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>159633</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>易方达中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>58.64</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>98.77</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2228</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011068</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华宝资源优选混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>86.16</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2187</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>121010</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>72.64</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2134</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>013627</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华夏周期驱动混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>86.45</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2041</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>013626</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华夏周期驱动混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>86.45</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1726</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>014107</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>博时品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1444</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009782</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>74.76</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1020</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001197</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>长盛转型升级主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>80.39</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0972</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>519183</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>万家双引擎灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0784</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>161132</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>易方达科顺定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>88.25</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0761</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>013678</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>富国信享回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>25.56</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0711</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>009783</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>74.76</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0667</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005732</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>富国臻选成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>76.07</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0634</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010339</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>国投瑞银远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>86.73</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0575</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>015572</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>72.64</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0437</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>260117</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>景顺长城支柱产业混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>72.88</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>015031</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>博时远见回报混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>81.10</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>013679</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>富国信享回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>25.56</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>002485</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>国联安通盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>36.18</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>005855</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中科沃土沃瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>81.16</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>560110</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>汇添富中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011340</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>博时战略新材料主题混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>79.48</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>015030</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>博时远见回报混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>81.10</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>004099</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>前海开源沪港深景气行业精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>011047</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>富国优质企业混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>79.84</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>008491</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>万家周期优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>005856</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>中科沃土沃瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>81.16</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>673073</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>西部利得新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>23.14</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>011341</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>博时战略新材料主题混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>79.48</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>011888</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>民生加银周期优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>014913</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>博时研究回报混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>77.91</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>000664</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>国联安通盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>36.18</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>003646</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>003647</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>516300</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>98.94</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>014108</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>博时品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>014914</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>博时研究回报混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>77.91</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>008492</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>万家周期优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>011889</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>民生加银周期优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>013437</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>财通资管中证有色金属指数A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>013438</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>财通资管中证有色金属指数C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>673071</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>西部利得新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>23.14</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>162413</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>华宝中证1000指数A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>016033</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>华宝中证1000指数C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4772,7 +8359,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6726,7 +10313,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10725,7 +14312,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11876,7 +15463,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12692,7 +16279,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14344,7 +17931,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -16861,782 +20448,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>009880</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>安信成长动力一年持有期混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>10.12</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>85.53</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.23</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.3269</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>002504</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>鹏华金鼎灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>6.10</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>82.27</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.73</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2885</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>003304</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>前海开源沪港深核心资源灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.82</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.29</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6.14</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1731</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>008891</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>安信价值成长混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>4.45</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>90.17</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.73</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1660</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001287</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>安信优势增长灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>4.09</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>92.83</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.65</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1493</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001959</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华商乐享互联灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>4.46</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>89.48</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.33</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1485</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>630009</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>华商稳定增利债券A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>17.24</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>20.06</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1465</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>003305</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>前海开源沪港深核心资源灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1.57</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.29</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>6.14</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0964</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>002036</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>安信优势增长灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1.98</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>92.83</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.65</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0723</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>002943</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>广发多因子灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>94.51</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>5.22</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0647</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>630109</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>华商稳定增利债券C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>6.03</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>20.06</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0513</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>006132</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>万家智造优势混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>94.43</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0385</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>008892</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>安信价值成长混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>90.17</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.73</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0298</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>004205</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>东方支柱产业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>88.28</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>5.37</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0183</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>007770</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>同泰开泰混合A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>89.01</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2.48</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0159</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>000433</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>安信鑫发优选混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>82.44</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>5.75</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0086</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>002505</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>鹏华金鼎灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>82.27</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>4.73</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0052</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>006133</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>万家智造优势混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>94.43</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0035</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>007771</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>同泰开泰混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>89.01</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>2.48</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0017</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>